--- a/Class_IV/Result.xlsx
+++ b/Class_IV/Result.xlsx
@@ -91,6 +91,15 @@
     <t>FA-I_EVS_pass</t>
   </si>
   <si>
+    <t>FA-I_General Knowledge</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge_pass</t>
+  </si>
+  <si>
     <t>FA-I_Moral Science</t>
   </si>
   <si>
@@ -100,15 +109,6 @@
     <t>FA-I_Moral Science_pass</t>
   </si>
   <si>
-    <t>FA-I_General Knowledge</t>
-  </si>
-  <si>
-    <t>FA-I_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>FA-I_General Knowledge_pass</t>
-  </si>
-  <si>
     <t>FA-I_Drawing</t>
   </si>
   <si>
@@ -181,6 +181,15 @@
     <t>FA-II_EVS_pass</t>
   </si>
   <si>
+    <t>FA-II_General Knowledge</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge_pass</t>
+  </si>
+  <si>
     <t>FA-II_Moral Science</t>
   </si>
   <si>
@@ -190,15 +199,6 @@
     <t>FA-II_Moral Science_pass</t>
   </si>
   <si>
-    <t>FA-II_General Knowledge</t>
-  </si>
-  <si>
-    <t>FA-II_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>FA-II_General Knowledge_pass</t>
-  </si>
-  <si>
     <t>FA-II_Drawing</t>
   </si>
   <si>
@@ -271,6 +271,15 @@
     <t>HY_EVS_pass</t>
   </si>
   <si>
+    <t>HY_General Knowledge</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge_pass</t>
+  </si>
+  <si>
     <t>HY_Moral Science</t>
   </si>
   <si>
@@ -280,15 +289,6 @@
     <t>HY_Moral Science_pass</t>
   </si>
   <si>
-    <t>HY_General Knowledge</t>
-  </si>
-  <si>
-    <t>HY_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>HY_General Knowledge_pass</t>
-  </si>
-  <si>
     <t>HY_Drawing</t>
   </si>
   <si>
@@ -319,12 +319,12 @@
     <t>Weightage EVS</t>
   </si>
   <si>
+    <t>Weightage General Knowledge</t>
+  </si>
+  <si>
     <t>Weightage Moral Science</t>
   </si>
   <si>
-    <t>Weightage General Knowledge</t>
-  </si>
-  <si>
     <t>Weightage Drawing</t>
   </si>
   <si>
@@ -349,12 +349,12 @@
     <t>Weightage EVS total</t>
   </si>
   <si>
+    <t>Weightage General Knowledge total</t>
+  </si>
+  <si>
     <t>Weightage Moral Science total</t>
   </si>
   <si>
-    <t>Weightage General Knowledge total</t>
-  </si>
-  <si>
     <t>Weightage Drawing total</t>
   </si>
   <si>
@@ -379,10 +379,10 @@
     <t>Result EVS</t>
   </si>
   <si>
+    <t>Result General Knowledge</t>
+  </si>
+  <si>
     <t>Result Moral Science</t>
-  </si>
-  <si>
-    <t>Result General Knowledge</t>
   </si>
   <si>
     <t>Result Drawing</t>
@@ -1889,16 +1889,16 @@
         <v>30</v>
       </c>
       <c r="CH3">
+        <v>100</v>
+      </c>
+      <c r="CI3">
+        <v>100</v>
+      </c>
+      <c r="CJ3">
+        <v>30</v>
+      </c>
+      <c r="CK3">
         <v>72</v>
-      </c>
-      <c r="CI3">
-        <v>100</v>
-      </c>
-      <c r="CJ3">
-        <v>30</v>
-      </c>
-      <c r="CK3">
-        <v>100</v>
       </c>
       <c r="CL3">
         <v>100</v>
@@ -1937,10 +1937,10 @@
         <v>92</v>
       </c>
       <c r="CX3">
+        <v>100</v>
+      </c>
+      <c r="CY3">
         <v>72</v>
-      </c>
-      <c r="CY3">
-        <v>100</v>
       </c>
       <c r="CZ3">
         <v>84</v>
@@ -2278,16 +2278,16 @@
         <v>30</v>
       </c>
       <c r="CH4">
+        <v>80</v>
+      </c>
+      <c r="CI4">
+        <v>100</v>
+      </c>
+      <c r="CJ4">
+        <v>30</v>
+      </c>
+      <c r="CK4">
         <v>62</v>
-      </c>
-      <c r="CI4">
-        <v>100</v>
-      </c>
-      <c r="CJ4">
-        <v>30</v>
-      </c>
-      <c r="CK4">
-        <v>0</v>
       </c>
       <c r="CL4">
         <v>100</v>
@@ -2326,10 +2326,10 @@
         <v>82.40000000000001</v>
       </c>
       <c r="CX4">
+        <v>80</v>
+      </c>
+      <c r="CY4">
         <v>62</v>
-      </c>
-      <c r="CY4">
-        <v>0</v>
       </c>
       <c r="CZ4">
         <v>60</v>
@@ -2389,13 +2389,13 @@
         <v>157</v>
       </c>
       <c r="DS4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DT4" t="s">
         <v>157</v>
       </c>
       <c r="DU4">
-        <v>698</v>
+        <v>778</v>
       </c>
       <c r="DV4" t="s">
         <v>157</v>
@@ -2404,10 +2404,10 @@
         <v>1000</v>
       </c>
       <c r="DX4">
-        <v>69.8</v>
+        <v>77.8</v>
       </c>
       <c r="DY4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:129">
@@ -2667,16 +2667,16 @@
         <v>30</v>
       </c>
       <c r="CH5">
+        <v>78</v>
+      </c>
+      <c r="CI5">
+        <v>100</v>
+      </c>
+      <c r="CJ5">
+        <v>30</v>
+      </c>
+      <c r="CK5">
         <v>57</v>
-      </c>
-      <c r="CI5">
-        <v>100</v>
-      </c>
-      <c r="CJ5">
-        <v>30</v>
-      </c>
-      <c r="CK5">
-        <v>78</v>
       </c>
       <c r="CL5">
         <v>100</v>
@@ -2715,10 +2715,10 @@
         <v>47.4</v>
       </c>
       <c r="CX5">
+        <v>78</v>
+      </c>
+      <c r="CY5">
         <v>57</v>
-      </c>
-      <c r="CY5">
-        <v>78</v>
       </c>
       <c r="CZ5">
         <v>54</v>
@@ -3056,16 +3056,16 @@
         <v>30</v>
       </c>
       <c r="CH6">
+        <v>74</v>
+      </c>
+      <c r="CI6">
+        <v>100</v>
+      </c>
+      <c r="CJ6">
+        <v>30</v>
+      </c>
+      <c r="CK6">
         <v>37</v>
-      </c>
-      <c r="CI6">
-        <v>100</v>
-      </c>
-      <c r="CJ6">
-        <v>30</v>
-      </c>
-      <c r="CK6">
-        <v>74</v>
       </c>
       <c r="CL6">
         <v>100</v>
@@ -3104,10 +3104,10 @@
         <v>61.2</v>
       </c>
       <c r="CX6">
+        <v>74</v>
+      </c>
+      <c r="CY6">
         <v>37</v>
-      </c>
-      <c r="CY6">
-        <v>74</v>
       </c>
       <c r="CZ6">
         <v>56</v>
@@ -3427,7 +3427,7 @@
         <v>30</v>
       </c>
       <c r="CB7">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="CC7">
         <v>100</v>
@@ -3445,16 +3445,16 @@
         <v>30</v>
       </c>
       <c r="CH7">
+        <v>88</v>
+      </c>
+      <c r="CI7">
+        <v>100</v>
+      </c>
+      <c r="CJ7">
+        <v>30</v>
+      </c>
+      <c r="CK7">
         <v>46</v>
-      </c>
-      <c r="CI7">
-        <v>100</v>
-      </c>
-      <c r="CJ7">
-        <v>30</v>
-      </c>
-      <c r="CK7">
-        <v>88</v>
       </c>
       <c r="CL7">
         <v>100</v>
@@ -3487,16 +3487,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="CV7">
-        <v>55.5</v>
+        <v>33.9</v>
       </c>
       <c r="CW7">
         <v>47.6</v>
       </c>
       <c r="CX7">
+        <v>88</v>
+      </c>
+      <c r="CY7">
         <v>46</v>
-      </c>
-      <c r="CY7">
-        <v>88</v>
       </c>
       <c r="CZ7">
         <v>74</v>
@@ -3562,7 +3562,7 @@
         <v>157</v>
       </c>
       <c r="DU7">
-        <v>596.5</v>
+        <v>574.9</v>
       </c>
       <c r="DV7" t="s">
         <v>157</v>
@@ -3571,7 +3571,7 @@
         <v>1000</v>
       </c>
       <c r="DX7">
-        <v>59.65000000000001</v>
+        <v>57.48999999999999</v>
       </c>
       <c r="DY7">
         <v>15</v>
@@ -3834,16 +3834,16 @@
         <v>30</v>
       </c>
       <c r="CH8">
+        <v>60</v>
+      </c>
+      <c r="CI8">
+        <v>100</v>
+      </c>
+      <c r="CJ8">
+        <v>30</v>
+      </c>
+      <c r="CK8">
         <v>57</v>
-      </c>
-      <c r="CI8">
-        <v>100</v>
-      </c>
-      <c r="CJ8">
-        <v>30</v>
-      </c>
-      <c r="CK8">
-        <v>60</v>
       </c>
       <c r="CL8">
         <v>100</v>
@@ -3882,10 +3882,10 @@
         <v>77.40000000000001</v>
       </c>
       <c r="CX8">
+        <v>60</v>
+      </c>
+      <c r="CY8">
         <v>57</v>
-      </c>
-      <c r="CY8">
-        <v>60</v>
       </c>
       <c r="CZ8">
         <v>50</v>
@@ -4223,16 +4223,16 @@
         <v>30</v>
       </c>
       <c r="CH9">
+        <v>88</v>
+      </c>
+      <c r="CI9">
+        <v>100</v>
+      </c>
+      <c r="CJ9">
+        <v>30</v>
+      </c>
+      <c r="CK9">
         <v>89</v>
-      </c>
-      <c r="CI9">
-        <v>100</v>
-      </c>
-      <c r="CJ9">
-        <v>30</v>
-      </c>
-      <c r="CK9">
-        <v>88</v>
       </c>
       <c r="CL9">
         <v>100</v>
@@ -4271,10 +4271,10 @@
         <v>84.59999999999999</v>
       </c>
       <c r="CX9">
+        <v>88</v>
+      </c>
+      <c r="CY9">
         <v>89</v>
-      </c>
-      <c r="CY9">
-        <v>88</v>
       </c>
       <c r="CZ9">
         <v>74</v>
@@ -4612,16 +4612,16 @@
         <v>30</v>
       </c>
       <c r="CH10">
+        <v>86</v>
+      </c>
+      <c r="CI10">
+        <v>100</v>
+      </c>
+      <c r="CJ10">
+        <v>30</v>
+      </c>
+      <c r="CK10">
         <v>47</v>
-      </c>
-      <c r="CI10">
-        <v>100</v>
-      </c>
-      <c r="CJ10">
-        <v>30</v>
-      </c>
-      <c r="CK10">
-        <v>86</v>
       </c>
       <c r="CL10">
         <v>100</v>
@@ -4660,10 +4660,10 @@
         <v>60.4</v>
       </c>
       <c r="CX10">
+        <v>86</v>
+      </c>
+      <c r="CY10">
         <v>47</v>
-      </c>
-      <c r="CY10">
-        <v>86</v>
       </c>
       <c r="CZ10">
         <v>78</v>
@@ -5001,16 +5001,16 @@
         <v>30</v>
       </c>
       <c r="CH11">
+        <v>66</v>
+      </c>
+      <c r="CI11">
+        <v>100</v>
+      </c>
+      <c r="CJ11">
+        <v>30</v>
+      </c>
+      <c r="CK11">
         <v>54</v>
-      </c>
-      <c r="CI11">
-        <v>100</v>
-      </c>
-      <c r="CJ11">
-        <v>30</v>
-      </c>
-      <c r="CK11">
-        <v>66</v>
       </c>
       <c r="CL11">
         <v>100</v>
@@ -5049,10 +5049,10 @@
         <v>61.8</v>
       </c>
       <c r="CX11">
+        <v>66</v>
+      </c>
+      <c r="CY11">
         <v>54</v>
-      </c>
-      <c r="CY11">
-        <v>66</v>
       </c>
       <c r="CZ11">
         <v>78</v>
@@ -5390,16 +5390,16 @@
         <v>30</v>
       </c>
       <c r="CH12">
+        <v>96</v>
+      </c>
+      <c r="CI12">
+        <v>100</v>
+      </c>
+      <c r="CJ12">
+        <v>30</v>
+      </c>
+      <c r="CK12">
         <v>91</v>
-      </c>
-      <c r="CI12">
-        <v>100</v>
-      </c>
-      <c r="CJ12">
-        <v>30</v>
-      </c>
-      <c r="CK12">
-        <v>96</v>
       </c>
       <c r="CL12">
         <v>100</v>
@@ -5438,10 +5438,10 @@
         <v>66.8</v>
       </c>
       <c r="CX12">
+        <v>96</v>
+      </c>
+      <c r="CY12">
         <v>91</v>
-      </c>
-      <c r="CY12">
-        <v>96</v>
       </c>
       <c r="CZ12">
         <v>98</v>
@@ -5519,7 +5519,7 @@
         <v>76.80800000000001</v>
       </c>
       <c r="DY12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:129">
@@ -5779,16 +5779,16 @@
         <v>30</v>
       </c>
       <c r="CH13">
+        <v>30</v>
+      </c>
+      <c r="CI13">
+        <v>100</v>
+      </c>
+      <c r="CJ13">
+        <v>30</v>
+      </c>
+      <c r="CK13">
         <v>11</v>
-      </c>
-      <c r="CI13">
-        <v>100</v>
-      </c>
-      <c r="CJ13">
-        <v>30</v>
-      </c>
-      <c r="CK13">
-        <v>30</v>
       </c>
       <c r="CL13">
         <v>100</v>
@@ -5827,10 +5827,10 @@
         <v>7.8</v>
       </c>
       <c r="CX13">
+        <v>30</v>
+      </c>
+      <c r="CY13">
         <v>11</v>
-      </c>
-      <c r="CY13">
-        <v>30</v>
       </c>
       <c r="CZ13">
         <v>76</v>
@@ -5887,10 +5887,10 @@
         <v>158</v>
       </c>
       <c r="DR13" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS13" t="s">
         <v>158</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>157</v>
       </c>
       <c r="DT13" t="s">
         <v>157</v>
@@ -6168,16 +6168,16 @@
         <v>30</v>
       </c>
       <c r="CH14">
+        <v>28</v>
+      </c>
+      <c r="CI14">
+        <v>100</v>
+      </c>
+      <c r="CJ14">
+        <v>30</v>
+      </c>
+      <c r="CK14">
         <v>50</v>
-      </c>
-      <c r="CI14">
-        <v>100</v>
-      </c>
-      <c r="CJ14">
-        <v>30</v>
-      </c>
-      <c r="CK14">
-        <v>28</v>
       </c>
       <c r="CL14">
         <v>100</v>
@@ -6216,10 +6216,10 @@
         <v>55.2</v>
       </c>
       <c r="CX14">
+        <v>28</v>
+      </c>
+      <c r="CY14">
         <v>50</v>
-      </c>
-      <c r="CY14">
-        <v>28</v>
       </c>
       <c r="CZ14">
         <v>40</v>
@@ -6276,10 +6276,10 @@
         <v>157</v>
       </c>
       <c r="DR14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DS14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DT14" t="s">
         <v>157</v>
@@ -6557,16 +6557,16 @@
         <v>30</v>
       </c>
       <c r="CH15">
+        <v>52</v>
+      </c>
+      <c r="CI15">
+        <v>100</v>
+      </c>
+      <c r="CJ15">
+        <v>30</v>
+      </c>
+      <c r="CK15">
         <v>70</v>
-      </c>
-      <c r="CI15">
-        <v>100</v>
-      </c>
-      <c r="CJ15">
-        <v>30</v>
-      </c>
-      <c r="CK15">
-        <v>52</v>
       </c>
       <c r="CL15">
         <v>100</v>
@@ -6605,10 +6605,10 @@
         <v>72.59999999999999</v>
       </c>
       <c r="CX15">
+        <v>52</v>
+      </c>
+      <c r="CY15">
         <v>70</v>
-      </c>
-      <c r="CY15">
-        <v>52</v>
       </c>
       <c r="CZ15">
         <v>60</v>
@@ -6946,7 +6946,7 @@
         <v>30</v>
       </c>
       <c r="CH16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CI16">
         <v>100</v>
@@ -6994,7 +6994,7 @@
         <v>0</v>
       </c>
       <c r="CX16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="CY16">
         <v>0</v>
@@ -7054,7 +7054,7 @@
         <v>158</v>
       </c>
       <c r="DR16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DS16" t="s">
         <v>158</v>
@@ -7063,7 +7063,7 @@
         <v>158</v>
       </c>
       <c r="DU16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DV16" t="s">
         <v>158</v>
@@ -7072,7 +7072,7 @@
         <v>1000</v>
       </c>
       <c r="DX16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DY16">
         <v>26</v>
@@ -7335,16 +7335,16 @@
         <v>30</v>
       </c>
       <c r="CH17">
+        <v>68</v>
+      </c>
+      <c r="CI17">
+        <v>100</v>
+      </c>
+      <c r="CJ17">
+        <v>30</v>
+      </c>
+      <c r="CK17">
         <v>49</v>
-      </c>
-      <c r="CI17">
-        <v>100</v>
-      </c>
-      <c r="CJ17">
-        <v>30</v>
-      </c>
-      <c r="CK17">
-        <v>68</v>
       </c>
       <c r="CL17">
         <v>100</v>
@@ -7383,10 +7383,10 @@
         <v>50.2</v>
       </c>
       <c r="CX17">
+        <v>68</v>
+      </c>
+      <c r="CY17">
         <v>49</v>
-      </c>
-      <c r="CY17">
-        <v>68</v>
       </c>
       <c r="CZ17">
         <v>66</v>
@@ -7724,16 +7724,16 @@
         <v>30</v>
       </c>
       <c r="CH18">
+        <v>74</v>
+      </c>
+      <c r="CI18">
+        <v>100</v>
+      </c>
+      <c r="CJ18">
+        <v>30</v>
+      </c>
+      <c r="CK18">
         <v>67</v>
-      </c>
-      <c r="CI18">
-        <v>100</v>
-      </c>
-      <c r="CJ18">
-        <v>30</v>
-      </c>
-      <c r="CK18">
-        <v>74</v>
       </c>
       <c r="CL18">
         <v>100</v>
@@ -7772,10 +7772,10 @@
         <v>38.2</v>
       </c>
       <c r="CX18">
+        <v>74</v>
+      </c>
+      <c r="CY18">
         <v>67</v>
-      </c>
-      <c r="CY18">
-        <v>74</v>
       </c>
       <c r="CZ18">
         <v>66</v>
@@ -8242,7 +8242,7 @@
         <v>77.48</v>
       </c>
       <c r="DY19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:129">
@@ -8502,16 +8502,16 @@
         <v>30</v>
       </c>
       <c r="CH20">
+        <v>70</v>
+      </c>
+      <c r="CI20">
+        <v>100</v>
+      </c>
+      <c r="CJ20">
+        <v>30</v>
+      </c>
+      <c r="CK20">
         <v>52</v>
-      </c>
-      <c r="CI20">
-        <v>100</v>
-      </c>
-      <c r="CJ20">
-        <v>30</v>
-      </c>
-      <c r="CK20">
-        <v>70</v>
       </c>
       <c r="CL20">
         <v>100</v>
@@ -8550,10 +8550,10 @@
         <v>59.8</v>
       </c>
       <c r="CX20">
+        <v>70</v>
+      </c>
+      <c r="CY20">
         <v>52</v>
-      </c>
-      <c r="CY20">
-        <v>70</v>
       </c>
       <c r="CZ20">
         <v>72</v>
@@ -8891,16 +8891,16 @@
         <v>30</v>
       </c>
       <c r="CH21">
+        <v>92</v>
+      </c>
+      <c r="CI21">
+        <v>100</v>
+      </c>
+      <c r="CJ21">
+        <v>30</v>
+      </c>
+      <c r="CK21">
         <v>91</v>
-      </c>
-      <c r="CI21">
-        <v>100</v>
-      </c>
-      <c r="CJ21">
-        <v>30</v>
-      </c>
-      <c r="CK21">
-        <v>92</v>
       </c>
       <c r="CL21">
         <v>100</v>
@@ -8939,10 +8939,10 @@
         <v>70.8</v>
       </c>
       <c r="CX21">
+        <v>92</v>
+      </c>
+      <c r="CY21">
         <v>91</v>
-      </c>
-      <c r="CY21">
-        <v>92</v>
       </c>
       <c r="CZ21">
         <v>82</v>
@@ -9020,7 +9020,7 @@
         <v>77.41200000000002</v>
       </c>
       <c r="DY21">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:129">
@@ -9262,7 +9262,7 @@
         <v>30</v>
       </c>
       <c r="CB22">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="CC22">
         <v>100</v>
@@ -9280,16 +9280,16 @@
         <v>30</v>
       </c>
       <c r="CH22">
+        <v>56</v>
+      </c>
+      <c r="CI22">
+        <v>100</v>
+      </c>
+      <c r="CJ22">
+        <v>30</v>
+      </c>
+      <c r="CK22">
         <v>5</v>
-      </c>
-      <c r="CI22">
-        <v>100</v>
-      </c>
-      <c r="CJ22">
-        <v>30</v>
-      </c>
-      <c r="CK22">
-        <v>56</v>
       </c>
       <c r="CL22">
         <v>100</v>
@@ -9322,16 +9322,16 @@
         <v>41.8</v>
       </c>
       <c r="CV22">
-        <v>47.04</v>
+        <v>34.24</v>
       </c>
       <c r="CW22">
         <v>13.6</v>
       </c>
       <c r="CX22">
+        <v>56</v>
+      </c>
+      <c r="CY22">
         <v>5</v>
-      </c>
-      <c r="CY22">
-        <v>56</v>
       </c>
       <c r="CZ22">
         <v>56</v>
@@ -9388,28 +9388,28 @@
         <v>158</v>
       </c>
       <c r="DR22" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS22" t="s">
         <v>158</v>
       </c>
-      <c r="DS22" t="s">
-        <v>157</v>
-      </c>
       <c r="DT22" t="s">
         <v>157</v>
       </c>
       <c r="DU22">
-        <v>312.24</v>
+        <v>299.4400000000001</v>
       </c>
       <c r="DV22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="DW22">
         <v>1000</v>
       </c>
       <c r="DX22">
-        <v>31.224</v>
+        <v>29.944</v>
       </c>
       <c r="DY22">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:129">
@@ -9651,7 +9651,7 @@
         <v>30</v>
       </c>
       <c r="CB23">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="CC23">
         <v>100</v>
@@ -9669,16 +9669,16 @@
         <v>30</v>
       </c>
       <c r="CH23">
+        <v>50</v>
+      </c>
+      <c r="CI23">
+        <v>100</v>
+      </c>
+      <c r="CJ23">
+        <v>30</v>
+      </c>
+      <c r="CK23">
         <v>32</v>
-      </c>
-      <c r="CI23">
-        <v>100</v>
-      </c>
-      <c r="CJ23">
-        <v>30</v>
-      </c>
-      <c r="CK23">
-        <v>36</v>
       </c>
       <c r="CL23">
         <v>100</v>
@@ -9711,16 +9711,16 @@
         <v>44.4</v>
       </c>
       <c r="CV23">
-        <v>39.8</v>
+        <v>34.2</v>
       </c>
       <c r="CW23">
         <v>26.8</v>
       </c>
       <c r="CX23">
+        <v>50</v>
+      </c>
+      <c r="CY23">
         <v>32</v>
-      </c>
-      <c r="CY23">
-        <v>36</v>
       </c>
       <c r="CZ23">
         <v>62</v>
@@ -9786,7 +9786,7 @@
         <v>157</v>
       </c>
       <c r="DU23">
-        <v>365.4</v>
+        <v>373.8</v>
       </c>
       <c r="DV23" t="s">
         <v>157</v>
@@ -9795,7 +9795,7 @@
         <v>1000</v>
       </c>
       <c r="DX23">
-        <v>36.54000000000001</v>
+        <v>37.38</v>
       </c>
       <c r="DY23">
         <v>22</v>
@@ -10058,16 +10058,16 @@
         <v>30</v>
       </c>
       <c r="CH24">
+        <v>82</v>
+      </c>
+      <c r="CI24">
+        <v>100</v>
+      </c>
+      <c r="CJ24">
+        <v>30</v>
+      </c>
+      <c r="CK24">
         <v>86</v>
-      </c>
-      <c r="CI24">
-        <v>100</v>
-      </c>
-      <c r="CJ24">
-        <v>30</v>
-      </c>
-      <c r="CK24">
-        <v>82</v>
       </c>
       <c r="CL24">
         <v>100</v>
@@ -10106,10 +10106,10 @@
         <v>63.8</v>
       </c>
       <c r="CX24">
+        <v>82</v>
+      </c>
+      <c r="CY24">
         <v>86</v>
-      </c>
-      <c r="CY24">
-        <v>82</v>
       </c>
       <c r="CZ24">
         <v>82</v>
@@ -10447,16 +10447,16 @@
         <v>30</v>
       </c>
       <c r="CH25">
+        <v>78</v>
+      </c>
+      <c r="CI25">
+        <v>100</v>
+      </c>
+      <c r="CJ25">
+        <v>30</v>
+      </c>
+      <c r="CK25">
         <v>89</v>
-      </c>
-      <c r="CI25">
-        <v>100</v>
-      </c>
-      <c r="CJ25">
-        <v>30</v>
-      </c>
-      <c r="CK25">
-        <v>78</v>
       </c>
       <c r="CL25">
         <v>100</v>
@@ -10495,10 +10495,10 @@
         <v>47</v>
       </c>
       <c r="CX25">
+        <v>78</v>
+      </c>
+      <c r="CY25">
         <v>89</v>
-      </c>
-      <c r="CY25">
-        <v>78</v>
       </c>
       <c r="CZ25">
         <v>78</v>
@@ -10800,7 +10800,7 @@
         <v>30</v>
       </c>
       <c r="BV26">
-        <v>31.5</v>
+        <v>47.5</v>
       </c>
       <c r="BW26">
         <v>100</v>
@@ -10836,16 +10836,16 @@
         <v>30</v>
       </c>
       <c r="CH26">
+        <v>98</v>
+      </c>
+      <c r="CI26">
+        <v>100</v>
+      </c>
+      <c r="CJ26">
+        <v>30</v>
+      </c>
+      <c r="CK26">
         <v>70</v>
-      </c>
-      <c r="CI26">
-        <v>100</v>
-      </c>
-      <c r="CJ26">
-        <v>30</v>
-      </c>
-      <c r="CK26">
-        <v>98</v>
       </c>
       <c r="CL26">
         <v>100</v>
@@ -10872,7 +10872,7 @@
         <v>54.8</v>
       </c>
       <c r="CT26">
-        <v>33.2</v>
+        <v>46</v>
       </c>
       <c r="CU26">
         <v>76.59999999999999</v>
@@ -10884,10 +10884,10 @@
         <v>75.59999999999999</v>
       </c>
       <c r="CX26">
+        <v>98</v>
+      </c>
+      <c r="CY26">
         <v>70</v>
-      </c>
-      <c r="CY26">
-        <v>98</v>
       </c>
       <c r="CZ26">
         <v>70</v>
@@ -10953,7 +10953,7 @@
         <v>157</v>
       </c>
       <c r="DU26">
-        <v>683.8</v>
+        <v>696.5999999999999</v>
       </c>
       <c r="DV26" t="s">
         <v>157</v>
@@ -10962,7 +10962,7 @@
         <v>1000</v>
       </c>
       <c r="DX26">
-        <v>68.38</v>
+        <v>69.65999999999998</v>
       </c>
       <c r="DY26">
         <v>10</v>
@@ -11225,16 +11225,16 @@
         <v>30</v>
       </c>
       <c r="CH27">
+        <v>50</v>
+      </c>
+      <c r="CI27">
+        <v>100</v>
+      </c>
+      <c r="CJ27">
+        <v>30</v>
+      </c>
+      <c r="CK27">
         <v>14</v>
-      </c>
-      <c r="CI27">
-        <v>100</v>
-      </c>
-      <c r="CJ27">
-        <v>30</v>
-      </c>
-      <c r="CK27">
-        <v>0</v>
       </c>
       <c r="CL27">
         <v>100</v>
@@ -11273,10 +11273,10 @@
         <v>17.8</v>
       </c>
       <c r="CX27">
+        <v>50</v>
+      </c>
+      <c r="CY27">
         <v>14</v>
-      </c>
-      <c r="CY27">
-        <v>0</v>
       </c>
       <c r="CZ27">
         <v>56</v>
@@ -11333,7 +11333,7 @@
         <v>158</v>
       </c>
       <c r="DR27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DS27" t="s">
         <v>158</v>
@@ -11342,19 +11342,19 @@
         <v>157</v>
       </c>
       <c r="DU27">
-        <v>268.88</v>
+        <v>318.88</v>
       </c>
       <c r="DV27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DW27">
         <v>1000</v>
       </c>
       <c r="DX27">
-        <v>26.888</v>
+        <v>31.888</v>
       </c>
       <c r="DY27">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
